--- a/NistData/RawData/MolMassCalculator.xlsx
+++ b/NistData/RawData/MolMassCalculator.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -58,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -147,7 +148,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -179,7 +180,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <f aca="false"> 9.10938356E-031 * 6.0221409E+023</f>
+        <f aca="false">9.10938356E-031 * 6.0221409E+023</f>
         <v>5.48579913104636E-007</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -191,7 +192,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -199,7 +200,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -207,7 +208,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -216,7 +217,7 @@
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">B1*B5 + B2*B6 + B3*B7</f>
-        <v>0.0161241037255446</v>
+        <v>0.0322498531908286</v>
       </c>
     </row>
   </sheetData>
